--- a/memo.xlsx
+++ b/memo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>cout</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>endline pour faire un renvoi à la ligne (comme \n)</t>
+  </si>
+  <si>
+    <t>objet</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
   <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -476,6 +479,9 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
@@ -483,6 +489,9 @@
     <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
